--- a/BackTest/2020-01-20 BackTest MBL.xlsx
+++ b/BackTest/2020-01-20 BackTest MBL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -16093,7 +16093,7 @@
         <v>-13333730.09280065</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-13358381.09280065</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-15066767.46840065</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-15026399.46840065</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18007,14 +18007,10 @@
         <v>-15536948.50000066</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J534" t="n">
-        <v>1.801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
@@ -18047,14 +18043,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18086,14 +18076,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18287,14 +18271,10 @@
         <v>-15496731.50000066</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="J542" t="n">
-        <v>1.802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
@@ -18324,19 +18304,11 @@
         <v>-15474371.50000066</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J543" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18365,19 +18337,11 @@
         <v>-15448841.50000066</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J544" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18406,14 +18370,10 @@
         <v>-15472740.50000066</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J545" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
@@ -18443,19 +18403,11 @@
         <v>-15439231.50000066</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J546" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18484,19 +18436,11 @@
         <v>-15439231.50000066</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J547" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18525,14 +18469,10 @@
         <v>-15439231.50000066</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J548" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
@@ -18562,19 +18502,11 @@
         <v>-15487586.50000066</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J549" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18603,19 +18535,11 @@
         <v>-15519656.05230066</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J550" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18644,19 +18568,11 @@
         <v>-15154467.04090066</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J551" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18685,19 +18601,11 @@
         <v>-15176453.04090066</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J552" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18726,19 +18634,11 @@
         <v>-15129230.04090066</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="J553" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18767,19 +18667,11 @@
         <v>-15129230.04090066</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J554" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18808,19 +18700,11 @@
         <v>-15152997.04090066</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J555" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18849,19 +18733,11 @@
         <v>-15380248.68660066</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="J556" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18890,19 +18766,11 @@
         <v>-15353387.68660066</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J557" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18931,19 +18799,11 @@
         <v>-15303816.68660066</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J558" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18972,19 +18832,11 @@
         <v>-15343646.68660066</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J559" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19013,19 +18865,11 @@
         <v>-15343646.68660066</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J560" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19054,19 +18898,11 @@
         <v>-15343646.68660066</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J561" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19095,19 +18931,11 @@
         <v>-15379239.79050066</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J562" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19136,19 +18964,11 @@
         <v>-15419887.79050066</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J563" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19177,19 +18997,11 @@
         <v>-15419887.79050066</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J564" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19218,19 +19030,11 @@
         <v>-15419887.79050066</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J565" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19259,19 +19063,11 @@
         <v>-15458906.79050066</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J566" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19300,19 +19096,11 @@
         <v>-15458906.79050066</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="J567" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19341,19 +19129,11 @@
         <v>-15484361.79050066</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="J568" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19382,19 +19162,11 @@
         <v>-15437594.32090066</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J569" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19423,19 +19195,11 @@
         <v>-15414259.32090066</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J570" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19464,19 +19228,11 @@
         <v>-15386270.32090066</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J571" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19505,19 +19261,11 @@
         <v>-15386270.32090066</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J572" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19546,19 +19294,11 @@
         <v>-15663860.14300066</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J573" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19587,19 +19327,11 @@
         <v>-15691116.14300066</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J574" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19628,19 +19360,11 @@
         <v>-15691116.14300066</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J575" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19669,19 +19393,11 @@
         <v>-15726929.14300066</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J576" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19710,19 +19426,11 @@
         <v>-15726929.14300066</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="J577" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19751,19 +19459,11 @@
         <v>-15749709.14300066</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="J578" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19792,19 +19492,11 @@
         <v>-15776204.14300066</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J579" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19833,19 +19525,11 @@
         <v>-15776204.14300066</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J580" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19874,19 +19558,11 @@
         <v>-15776204.14300066</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J581" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19915,19 +19591,11 @@
         <v>-15776204.14300066</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J582" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19956,19 +19624,11 @@
         <v>-15735494.14300066</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J583" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19997,19 +19657,11 @@
         <v>-16106846.29850066</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="J584" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20038,19 +19690,11 @@
         <v>-16126793.29850066</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J585" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20079,19 +19723,11 @@
         <v>-16126793.29850066</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J586" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20120,19 +19756,11 @@
         <v>-16126793.29850066</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J587" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20161,19 +19789,11 @@
         <v>-16126793.29850066</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J588" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20202,19 +19822,11 @@
         <v>-16126793.29850066</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J589" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20243,19 +19855,11 @@
         <v>-16096306.29850066</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J590" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20284,19 +19888,11 @@
         <v>-16096306.29850066</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J591" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20325,19 +19921,11 @@
         <v>-16152650.29850066</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J592" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20366,19 +19954,11 @@
         <v>-16152650.29850066</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J593" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20407,19 +19987,11 @@
         <v>-16152650.29850066</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J594" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20448,19 +20020,11 @@
         <v>-16152650.29850066</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J595" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20489,19 +20053,11 @@
         <v>-16152650.29850066</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J596" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20530,19 +20086,11 @@
         <v>-16172944.29850066</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J597" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20571,19 +20119,11 @@
         <v>-16147364.29850066</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="J598" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20612,19 +20152,11 @@
         <v>-16118517.29850066</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="J599" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20653,19 +20185,11 @@
         <v>-16118517.29850066</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J600" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20694,19 +20218,11 @@
         <v>-16118517.29850066</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J601" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20735,19 +20251,11 @@
         <v>-16072710.29850066</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J602" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20776,19 +20284,11 @@
         <v>-16072710.29850066</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J603" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20817,19 +20317,11 @@
         <v>-16113538.29850066</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J604" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20858,19 +20350,11 @@
         <v>-16113538.29850066</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J605" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20899,19 +20383,11 @@
         <v>-16113538.29850066</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J606" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20940,19 +20416,11 @@
         <v>-16068495.29850066</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J607" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20981,19 +20449,11 @@
         <v>-16068495.29850066</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J608" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21022,19 +20482,11 @@
         <v>-16068495.29850066</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J609" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21063,19 +20515,11 @@
         <v>-16027667.29850066</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J610" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21104,19 +20548,11 @@
         <v>-16055737.29850066</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J611" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21145,19 +20581,11 @@
         <v>-16055737.29850066</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J612" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21186,19 +20614,11 @@
         <v>-16055737.29850066</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J613" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21227,19 +20647,11 @@
         <v>-16055737.29850066</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J614" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21268,19 +20680,11 @@
         <v>-16055737.29850066</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J615" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21309,19 +20713,11 @@
         <v>-16055737.29850066</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J616" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21350,19 +20746,11 @@
         <v>-16013488.29850066</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J617" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21391,19 +20779,11 @@
         <v>-15989632.29850066</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J618" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21432,19 +20812,11 @@
         <v>-15989632.29850066</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="J619" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21473,19 +20845,11 @@
         <v>-15989632.29850066</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="J620" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21514,19 +20878,11 @@
         <v>-15966884.29850066</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="J621" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21555,19 +20911,11 @@
         <v>-15930681.29850066</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J622" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21596,19 +20944,11 @@
         <v>-15929681.29850066</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="J623" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21637,19 +20977,11 @@
         <v>-15929681.29850066</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J624" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21678,19 +21010,11 @@
         <v>-15962734.29850066</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J625" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21719,19 +21043,11 @@
         <v>-15962734.29850066</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J626" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21760,19 +21076,11 @@
         <v>-15920642.29850066</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J627" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21801,19 +21109,11 @@
         <v>-15967527.29850066</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J628" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21842,19 +21142,11 @@
         <v>-11815713.66350066</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J629" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21886,14 +21178,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21922,17 +21208,11 @@
         <v>-11815713.66350066</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21961,17 +21241,11 @@
         <v>-11790010.66350066</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22000,17 +21274,11 @@
         <v>-11827106.66350066</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22039,17 +21307,11 @@
         <v>-11664429.78538492</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22081,14 +21343,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22120,14 +21376,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22159,14 +21409,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22198,14 +21442,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22237,14 +21475,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22276,14 +21508,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22315,14 +21541,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22354,14 +21574,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22393,14 +21607,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22432,14 +21640,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22471,14 +21673,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22510,14 +21706,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22549,14 +21739,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22588,14 +21772,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22627,14 +21805,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22666,14 +21838,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22705,14 +21871,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22741,23 +21901,15 @@
         <v>-22945442.99960066</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
-        <v>1.087469545957918</v>
-      </c>
-      <c r="M652" t="n">
-        <v>1.085011185682327</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -22848,7 +22000,7 @@
         <v>-24679367.08270066</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22881,7 +22033,7 @@
         <v>-24645447.08270066</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22914,7 +22066,7 @@
         <v>-24645447.08270066</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22947,7 +22099,7 @@
         <v>-25229288.27120066</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23244,7 +22396,7 @@
         <v>-24976570.59100066</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23277,7 +22429,7 @@
         <v>-25016731.59100066</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23343,7 +22495,7 @@
         <v>-24992647.59100066</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23376,7 +22528,7 @@
         <v>-24966187.59100066</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23409,7 +22561,7 @@
         <v>-24388667.59100066</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23442,7 +22594,7 @@
         <v>-24414535.59100066</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23475,7 +22627,7 @@
         <v>-24794405.49520066</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23508,7 +22660,7 @@
         <v>-24763223.49520066</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23541,7 +22693,7 @@
         <v>-24763223.49520066</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23574,7 +22726,7 @@
         <v>-24789655.49520066</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23607,7 +22759,7 @@
         <v>-24815569.49520066</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23640,7 +22792,7 @@
         <v>-24853728.20130065</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23673,7 +22825,7 @@
         <v>-24853728.20130065</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23706,7 +22858,7 @@
         <v>-24902472.20130065</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23805,7 +22957,7 @@
         <v>-25017223.04900065</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23838,7 +22990,7 @@
         <v>-25047885.04900065</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -33606,14 +32758,10 @@
         <v>-27360020.07329339</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J981" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
@@ -33643,591 +32791,597 @@
         <v>-27332188.07329339</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J982" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="K982" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="C983" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="D983" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="E983" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="F983" t="n">
+        <v>31169</v>
+      </c>
+      <c r="G983" t="n">
+        <v>-27332188.07329339</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="n">
+        <v>1</v>
+      </c>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="C984" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="E984" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="F984" t="n">
+        <v>46149</v>
+      </c>
+      <c r="G984" t="n">
+        <v>-27332188.07329339</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="n">
+        <v>1</v>
+      </c>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="C985" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="D985" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="E985" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F985" t="n">
+        <v>42363</v>
+      </c>
+      <c r="G985" t="n">
+        <v>-27289825.07329339</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="n">
+        <v>1</v>
+      </c>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C986" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="F986" t="n">
+        <v>35922</v>
+      </c>
+      <c r="G986" t="n">
+        <v>-27253903.07329339</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="C987" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F987" t="n">
+        <v>28736</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-27282639.07329339</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="C988" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="F988" t="n">
+        <v>44081</v>
+      </c>
+      <c r="G988" t="n">
+        <v>-27238558.07329339</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="C989" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="F989" t="n">
+        <v>32957</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-27238558.07329339</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="C990" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="E990" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="F990" t="n">
+        <v>43374</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-27195184.07329339</v>
+      </c>
+      <c r="H990" t="n">
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="J990" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="C991" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="F991" t="n">
+        <v>48736</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-27243920.07329339</v>
+      </c>
+      <c r="H991" t="n">
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="J991" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="K991" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L982" t="n">
-        <v>1</v>
-      </c>
-      <c r="M982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="C983" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="D983" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="E983" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="F983" t="n">
-        <v>31169</v>
-      </c>
-      <c r="G983" t="n">
-        <v>-27332188.07329339</v>
-      </c>
-      <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J983" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="K983" t="inlineStr">
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="C992" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="F992" t="n">
+        <v>29991</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-27243920.07329339</v>
+      </c>
+      <c r="H992" t="n">
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J992" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="K992" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L983" t="n">
-        <v>1</v>
-      </c>
-      <c r="M983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="C984" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="D984" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="E984" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="F984" t="n">
-        <v>46149</v>
-      </c>
-      <c r="G984" t="n">
-        <v>-27332188.07329339</v>
-      </c>
-      <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J984" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="K984" t="inlineStr"/>
-      <c r="L984" t="n">
-        <v>1</v>
-      </c>
-      <c r="M984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="C985" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="D985" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="E985" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="F985" t="n">
-        <v>42363</v>
-      </c>
-      <c r="G985" t="n">
-        <v>-27289825.07329339</v>
-      </c>
-      <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J985" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="K985" t="inlineStr">
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="C993" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E993" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="F993" t="n">
+        <v>17523</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-27261443.07329339</v>
+      </c>
+      <c r="H993" t="n">
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J993" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="C994" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="D994" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="E994" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="F994" t="n">
+        <v>54520</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-27206923.07329339</v>
+      </c>
+      <c r="H994" t="n">
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="J994" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="K994" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L985" t="n">
-        <v>1</v>
-      </c>
-      <c r="M985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="C986" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="D986" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="E986" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="F986" t="n">
-        <v>35922</v>
-      </c>
-      <c r="G986" t="n">
-        <v>-27253903.07329339</v>
-      </c>
-      <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="J986" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="K986" t="inlineStr">
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="C995" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D995" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E995" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="F995" t="n">
+        <v>17129</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-27224052.07329339</v>
+      </c>
+      <c r="H995" t="n">
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J995" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="K995" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="C987" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="D987" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="E987" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="F987" t="n">
-        <v>28736</v>
-      </c>
-      <c r="G987" t="n">
-        <v>-27282639.07329339</v>
-      </c>
-      <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="J987" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="K987" t="inlineStr"/>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="C988" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="D988" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="E988" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="F988" t="n">
-        <v>44081</v>
-      </c>
-      <c r="G988" t="n">
-        <v>-27238558.07329339</v>
-      </c>
-      <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="K988" t="inlineStr">
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="C996" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="D996" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="E996" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="F996" t="n">
+        <v>174049.3755</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-27050002.69779339</v>
+      </c>
+      <c r="H996" t="n">
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="J996" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="C997" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D997" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="E997" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F997" t="n">
+        <v>73942.6125</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-27123945.31029339</v>
+      </c>
+      <c r="H997" t="n">
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="J997" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="K997" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="C989" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="D989" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="E989" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="F989" t="n">
-        <v>32957</v>
-      </c>
-      <c r="G989" t="n">
-        <v>-27238558.07329339</v>
-      </c>
-      <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="K989" t="inlineStr">
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="D998" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="F998" t="n">
+        <v>52189</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-27176134.31029339</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="K998" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="C990" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="D990" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="E990" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="F990" t="n">
-        <v>43374</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-27195184.07329339</v>
-      </c>
-      <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="C991" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="D991" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="E991" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="F991" t="n">
-        <v>48736</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-27243920.07329339</v>
-      </c>
-      <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="C992" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="D992" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="E992" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="F992" t="n">
-        <v>29991</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-27243920.07329339</v>
-      </c>
-      <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="C993" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="D993" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="E993" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="F993" t="n">
-        <v>17523</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-27261443.07329339</v>
-      </c>
-      <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="C994" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="D994" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="E994" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="F994" t="n">
-        <v>54520</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-27206923.07329339</v>
-      </c>
-      <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="C995" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="D995" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="E995" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="F995" t="n">
-        <v>17129</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-27224052.07329339</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="C996" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="D996" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="E996" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="F996" t="n">
-        <v>174049.3755</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-27050002.69779339</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="C997" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D997" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="E997" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F997" t="n">
-        <v>73942.6125</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-27123945.31029339</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="C998" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="D998" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="E998" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="F998" t="n">
-        <v>52189</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-27176134.31029339</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -37622,14 +36776,10 @@
         <v>-32193908.97029339</v>
       </c>
       <c r="H1101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1101" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="J1101" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
@@ -37662,1869 +36812,1607 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
+      <c r="J1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr"/>
+      <c r="L1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>283733.5314</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>-32590637.61489339</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
+      <c r="J1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr"/>
+      <c r="L1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>26308</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>-32564329.61489339</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
+      <c r="J1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr"/>
+      <c r="L1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>23738</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>-32588067.61489339</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr"/>
+      <c r="L1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>33274</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>-32621341.61489339</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
+      <c r="L1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>22156</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>-32599185.61489339</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
+      <c r="J1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr"/>
+      <c r="L1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>21083</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>-32599185.61489339</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
+      <c r="J1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr"/>
+      <c r="L1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>34382</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>-32599185.61489339</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
+      <c r="L1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>52391</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>-32599185.61489339</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
+      <c r="L1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>26146</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>-32573039.61489339</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr"/>
+      <c r="L1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>31280</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>-32541759.61489339</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
+      <c r="L1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>41946</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>-32541759.61489339</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
+      <c r="L1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>40986</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>-32541759.61489339</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
+      <c r="L1114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>48426</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>-32541759.61489339</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
+      <c r="L1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>24793</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>-32541759.61489339</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
+      <c r="L1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>49040</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>-32492719.61489339</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>26975</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>-32492719.61489339</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
+      <c r="L1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>28360</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>-32492719.61489339</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
+      <c r="L1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>31441</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>43029</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>20710</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>24644</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>31019</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>26841</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>36769</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>-32461278.61489339</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
         <v>1.814</v>
       </c>
-      <c r="K1102" t="inlineStr">
+      <c r="C1127" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>39956</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>-32421322.61489339</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>29223</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>-32421322.61489339</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>33108</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>-32388214.61489339</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>24340</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>-32412554.61489339</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>38663</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>-32451217.61489339</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>25132</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>-32426085.61489339</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>38396</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>-32426085.61489339</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>45100</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>-32426085.61489339</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>30846</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>-32426085.61489339</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>19977</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>-32406108.61489339</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>22368</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-32406108.61489339</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>17625</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>-32423733.61489339</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>27196</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>-32450929.61489339</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>40784</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>-32410145.61489339</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>23700</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>-32433845.61489339</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>29260</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>-32433845.61489339</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>36435</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-32470280.61489339</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>50570</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-32470280.61489339</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>30689</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-32470280.61489339</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>19175</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-32451105.61489339</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>24725</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-32451105.61489339</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>22465</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-32428640.61489339</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>73634</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-32502274.61489339</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1149" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1102" t="inlineStr"/>
-    </row>
-    <row r="1103">
-      <c r="A1103" s="1" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B1103" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C1103" t="n">
-        <v>1.794</v>
-      </c>
-      <c r="D1103" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E1103" t="n">
-        <v>1.794</v>
-      </c>
-      <c r="F1103" t="n">
-        <v>283733.5314</v>
-      </c>
-      <c r="G1103" t="n">
-        <v>-32590637.61489339</v>
-      </c>
-      <c r="H1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J1103" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1103" t="inlineStr"/>
-    </row>
-    <row r="1104">
-      <c r="A1104" s="1" t="n">
-        <v>1102</v>
-      </c>
-      <c r="B1104" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="C1104" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D1104" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E1104" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="F1104" t="n">
-        <v>26308</v>
-      </c>
-      <c r="G1104" t="n">
-        <v>-32564329.61489339</v>
-      </c>
-      <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1104" t="inlineStr"/>
-    </row>
-    <row r="1105">
-      <c r="A1105" s="1" t="n">
-        <v>1103</v>
-      </c>
-      <c r="B1105" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C1105" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D1105" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E1105" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F1105" t="n">
-        <v>23738</v>
-      </c>
-      <c r="G1105" t="n">
-        <v>-32588067.61489339</v>
-      </c>
-      <c r="H1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="J1105" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" s="1" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B1106" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C1106" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D1106" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E1106" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F1106" t="n">
-        <v>33274</v>
-      </c>
-      <c r="G1106" t="n">
-        <v>-32621341.61489339</v>
-      </c>
-      <c r="H1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J1106" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" s="1" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B1107" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C1107" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D1107" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E1107" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F1107" t="n">
-        <v>22156</v>
-      </c>
-      <c r="G1107" t="n">
-        <v>-32599185.61489339</v>
-      </c>
-      <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" s="1" t="n">
-        <v>1106</v>
-      </c>
-      <c r="B1108" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C1108" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D1108" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E1108" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F1108" t="n">
-        <v>21083</v>
-      </c>
-      <c r="G1108" t="n">
-        <v>-32599185.61489339</v>
-      </c>
-      <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1108" t="inlineStr"/>
-    </row>
-    <row r="1109">
-      <c r="A1109" s="1" t="n">
-        <v>1107</v>
-      </c>
-      <c r="B1109" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C1109" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D1109" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E1109" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F1109" t="n">
-        <v>34382</v>
-      </c>
-      <c r="G1109" t="n">
-        <v>-32599185.61489339</v>
-      </c>
-      <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1109" t="inlineStr"/>
-    </row>
-    <row r="1110">
-      <c r="A1110" s="1" t="n">
-        <v>1108</v>
-      </c>
-      <c r="B1110" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C1110" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D1110" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E1110" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F1110" t="n">
-        <v>52391</v>
-      </c>
-      <c r="G1110" t="n">
-        <v>-32599185.61489339</v>
-      </c>
-      <c r="H1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J1110" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" s="1" t="n">
-        <v>1109</v>
-      </c>
-      <c r="B1111" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="C1111" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="D1111" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="E1111" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="F1111" t="n">
-        <v>26146</v>
-      </c>
-      <c r="G1111" t="n">
-        <v>-32573039.61489339</v>
-      </c>
-      <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" s="1" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B1112" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C1112" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="D1112" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E1112" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="F1112" t="n">
-        <v>31280</v>
-      </c>
-      <c r="G1112" t="n">
-        <v>-32541759.61489339</v>
-      </c>
-      <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1112" t="inlineStr"/>
-    </row>
-    <row r="1113">
-      <c r="A1113" s="1" t="n">
-        <v>1111</v>
-      </c>
-      <c r="B1113" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C1113" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="D1113" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E1113" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="F1113" t="n">
-        <v>41946</v>
-      </c>
-      <c r="G1113" t="n">
-        <v>-32541759.61489339</v>
-      </c>
-      <c r="H1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J1113" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" s="1" t="n">
-        <v>1112</v>
-      </c>
-      <c r="B1114" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C1114" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="D1114" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E1114" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="F1114" t="n">
-        <v>40986</v>
-      </c>
-      <c r="G1114" t="n">
-        <v>-32541759.61489339</v>
-      </c>
-      <c r="H1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J1114" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B1115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C1115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="D1115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E1115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="F1115" t="n">
-        <v>48426</v>
-      </c>
-      <c r="G1115" t="n">
-        <v>-32541759.61489339</v>
-      </c>
-      <c r="H1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J1115" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" s="1" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B1116" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C1116" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="D1116" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E1116" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="F1116" t="n">
-        <v>24793</v>
-      </c>
-      <c r="G1116" t="n">
-        <v>-32541759.61489339</v>
-      </c>
-      <c r="H1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J1116" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" s="1" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B1117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C1117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D1117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E1117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F1117" t="n">
-        <v>49040</v>
-      </c>
-      <c r="G1117" t="n">
-        <v>-32492719.61489339</v>
-      </c>
-      <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J1117" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D1118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E1118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F1118" t="n">
-        <v>26975</v>
-      </c>
-      <c r="G1118" t="n">
-        <v>-32492719.61489339</v>
-      </c>
-      <c r="H1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J1118" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D1119" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F1119" t="n">
-        <v>28360</v>
-      </c>
-      <c r="G1119" t="n">
-        <v>-32492719.61489339</v>
-      </c>
-      <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1120" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>31441</v>
-      </c>
-      <c r="G1120" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J1120" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>43029</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>20710</v>
-      </c>
-      <c r="G1122" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>24644</v>
-      </c>
-      <c r="G1123" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>31019</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>26841</v>
-      </c>
-      <c r="G1125" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>36769</v>
-      </c>
-      <c r="G1126" t="n">
-        <v>-32461278.61489339</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>39956</v>
-      </c>
-      <c r="G1127" t="n">
-        <v>-32421322.61489339</v>
-      </c>
-      <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>29223</v>
-      </c>
-      <c r="G1128" t="n">
-        <v>-32421322.61489339</v>
-      </c>
-      <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>33108</v>
-      </c>
-      <c r="G1129" t="n">
-        <v>-32388214.61489339</v>
-      </c>
-      <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>24340</v>
-      </c>
-      <c r="G1130" t="n">
-        <v>-32412554.61489339</v>
-      </c>
-      <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>38663</v>
-      </c>
-      <c r="G1131" t="n">
-        <v>-32451217.61489339</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" s="1" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>25132</v>
-      </c>
-      <c r="G1132" t="n">
-        <v>-32426085.61489339</v>
-      </c>
-      <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" s="1" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>38396</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>-32426085.61489339</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>45100</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>-32426085.61489339</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" s="1" t="n">
-        <v>1133</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>30846</v>
-      </c>
-      <c r="G1135" t="n">
-        <v>-32426085.61489339</v>
-      </c>
-      <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>19977</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>-32406108.61489339</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>22368</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-32406108.61489339</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="1" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>17625</v>
-      </c>
-      <c r="G1138" t="n">
-        <v>-32423733.61489339</v>
-      </c>
-      <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="1" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>27196</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>-32450929.61489339</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="1" t="n">
-        <v>1138</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>40784</v>
-      </c>
-      <c r="G1140" t="n">
-        <v>-32410145.61489339</v>
-      </c>
-      <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" s="1" t="n">
-        <v>1139</v>
-      </c>
-      <c r="B1141" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1141" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1141" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1141" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1141" t="n">
-        <v>23700</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>-32433845.61489339</v>
-      </c>
-      <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B1142" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1142" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1142" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1142" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>29260</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>-32433845.61489339</v>
-      </c>
-      <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>36435</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-32470280.61489339</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>50570</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-32470280.61489339</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>30689</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-32470280.61489339</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>19175</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-32451105.61489339</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>24725</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-32451105.61489339</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>22465</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-32428640.61489339</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>73634</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-32502274.61489339</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39553,9 +38441,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>1.815</v>
+      </c>
       <c r="J1150" t="n">
         <v>1.814</v>
       </c>
@@ -39592,9 +38482,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1151" t="n">
         <v>1.814</v>
       </c>
@@ -39631,9 +38523,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1152" t="n">
         <v>1.814</v>
       </c>
@@ -39670,9 +38564,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1153" t="n">
         <v>1.814</v>
       </c>
@@ -39709,9 +38605,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1154" t="n">
         <v>1.814</v>
       </c>
@@ -39748,9 +38646,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1155" t="n">
         <v>1.814</v>
       </c>
@@ -39787,9 +38687,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1156" t="n">
         <v>1.814</v>
       </c>
@@ -39826,9 +38728,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1157" t="n">
         <v>1.814</v>
       </c>
@@ -39865,9 +38769,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1158" t="n">
         <v>1.814</v>
       </c>
@@ -39904,9 +38810,11 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1159" t="n">
         <v>1.814</v>
       </c>
@@ -39943,9 +38851,11 @@
         <v>-32445884.61489339</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1160" t="n">
         <v>1.814</v>
       </c>
@@ -39982,9 +38892,11 @@
         <v>-32406228.61489339</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>1.817</v>
+      </c>
       <c r="J1161" t="n">
         <v>1.814</v>
       </c>
@@ -40021,9 +38933,11 @@
         <v>-32376198.61489339</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>1.819</v>
+      </c>
       <c r="J1162" t="n">
         <v>1.814</v>
       </c>
@@ -40038,6 +38952,6 @@
       <c r="M1162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MBL.xlsx
+++ b/BackTest/2020-01-20 BackTest MBL.xlsx
@@ -16093,7 +16093,7 @@
         <v>-13333730.09280065</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-13358381.09280065</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-15066767.46840065</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-15026399.46840065</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-11827106.66350066</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-11710359.67180066</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-14347227.23890066</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-14308926.23890066</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-22945442.99960066</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-23997437.59650066</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-23997437.59650066</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-24036971.59650066</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-24073302.59650066</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-24110477.59650066</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-24071956.59650066</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-24115753.59650066</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-24096127.59650066</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-24096127.59650066</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-24023523.61660066</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-24061103.61660066</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-24090882.76810066</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-24069799.76810066</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-24098674.76810066</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-24098674.76810066</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-24382975.47140066</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-23976434.18692929</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-24008556.28949339</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-24095459.12649339</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-24117152.12649339</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-24143211.12649339</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-24166199.12649339</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-24197306.12649339</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-24155589.12649339</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-24188252.12649339</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-24234958.12649339</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-24280107.12649339</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-24240423.12649339</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-24287997.12649339</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-24287997.12649339</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-24249584.12649339</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-24196070.12649339</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-24176058.12649339</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-24176058.12649339</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-24151808.12649339</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-24130666.12649339</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-24130666.12649339</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-24163827.12649339</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-24120527.12649339</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-24155121.12649339</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-24176276.12649339</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-24176276.12649339</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-24203398.12649339</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-24257832.12649339</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-24287477.12649339</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-24307520.12649339</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-24307520.12649339</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-24275492.12649339</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-24439861.11429339</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-24437461.11429339</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-24593743.11429339</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-24682615.19969339</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-24580339.19969339</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-24611691.19969339</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-24638092.19969339</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-24817046.47769339</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-24822119.68569339</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-24822119.68569339</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-24759072.91449339</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-24975233.84799339</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-24939821.84799339</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-24939821.84799339</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-24879721.53559339</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-25365595.59329339</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-25365595.59329339</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-25322749.59329339</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-25322749.59329339</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-25369648.59329339</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-25333751.26829339</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-25333751.26829339</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-25341415.26829339</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-25408282.14749339</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-25672182.40039339</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-25672182.40039339</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33055,14 +33055,10 @@
         <v>-27195184.07329339</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="J990" t="n">
-        <v>1.824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
@@ -33092,19 +33088,11 @@
         <v>-27243920.07329339</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="J991" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33133,19 +33121,11 @@
         <v>-27243920.07329339</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="J992" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33174,14 +33154,10 @@
         <v>-27261443.07329339</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="J993" t="n">
-        <v>1.826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
@@ -33211,19 +33187,11 @@
         <v>-27206923.07329339</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="J994" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33252,19 +33220,11 @@
         <v>-27224052.07329339</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="J995" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33293,14 +33253,10 @@
         <v>-27050002.69779339</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
-      </c>
-      <c r="I996" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="J996" t="n">
-        <v>1.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
@@ -33330,19 +33286,11 @@
         <v>-27123945.31029339</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
-      </c>
-      <c r="I997" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J997" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33374,14 +33322,8 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36875,10 +36817,14 @@
         <v>-32564329.61489339</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>1.794</v>
+      </c>
       <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
@@ -36908,11 +36854,19 @@
         <v>-32588067.61489339</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36941,11 +36895,19 @@
         <v>-32621341.61489339</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36974,10 +36936,14 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>1.804</v>
+      </c>
       <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
@@ -37007,11 +36973,19 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37040,11 +37014,19 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37073,10 +37055,14 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>1.806</v>
+      </c>
       <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
@@ -37106,11 +37092,19 @@
         <v>-32573039.61489339</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37139,11 +37133,19 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37172,10 +37174,14 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>1.808</v>
+      </c>
       <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
@@ -37205,11 +37211,19 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37238,11 +37252,19 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37271,10 +37293,14 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>1.808</v>
+      </c>
       <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
@@ -37304,11 +37330,19 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37337,11 +37371,19 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37370,10 +37412,14 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
@@ -37403,11 +37449,19 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37436,11 +37490,19 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37469,10 +37531,14 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
@@ -37502,11 +37568,19 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37535,11 +37609,19 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37568,10 +37650,14 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
@@ -37601,11 +37687,19 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37634,11 +37728,19 @@
         <v>-32421322.61489339</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37667,10 +37769,14 @@
         <v>-32421322.61489339</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>1.814</v>
+      </c>
       <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
@@ -37700,11 +37806,19 @@
         <v>-32388214.61489339</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37733,11 +37847,19 @@
         <v>-32412554.61489339</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37766,10 +37888,14 @@
         <v>-32451217.61489339</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>1.815</v>
+      </c>
       <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
@@ -37799,11 +37925,19 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37832,11 +37966,19 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37865,10 +38007,14 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>1.816</v>
+      </c>
       <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
@@ -37898,11 +38044,19 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37931,11 +38085,19 @@
         <v>-32406108.61489339</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37964,10 +38126,14 @@
         <v>-32406108.61489339</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>1.817</v>
+      </c>
       <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
@@ -37997,11 +38163,19 @@
         <v>-32423733.61489339</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38030,11 +38204,19 @@
         <v>-32450929.61489339</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38063,10 +38245,14 @@
         <v>-32410145.61489339</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>1.814</v>
+      </c>
       <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
@@ -38096,11 +38282,19 @@
         <v>-32433845.61489339</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38129,11 +38323,19 @@
         <v>-32433845.61489339</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
